--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>999BLTWBCRWNPB</t>
+          <t>MICSSTW381MFHPS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>tester93</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -449,19 +449,19 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>WNPB Twin buffalo-check-red</t>
+          <t>MICROFIBER MFHPS TWIN XMAS WLAND</t>
         </is>
       </c>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Bedding/Blanket/WNPB/buffalo-check-red.jpg</t>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Bedding/Blanket/WNPB/buffalo-check-red_lg.jpg</t>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
         </is>
       </c>
       <c r="K1" t="inlineStr"/>
@@ -475,7 +475,1979 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Bedding/Blanket/WNPB/buffalo-check-red_lg.jpg,Bedding/Blanket/WNPB/buffalo-check-red.jpg</t>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MICSSTW575MFHPS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS TWIN Xmas Lights</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MICSSTW832MFHPS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS TWIN Chalet Village</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MICSSTW817MFHPS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS TWIN XMAS CARAVAN-RED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MICSSTW730MFHPS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS TWIN Alpine Penguin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MICSSTW731MFHPS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS TWIN Flamingo Holiday</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MICSSTW734MFHPS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS TWIN Winter Tails</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MICSSFU381MFHPS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL XMAS WLAND</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MICSSFU575MFHPS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL Xmas Lights</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MICSSFU832MFHPS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL Chalet Village</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MICSSFU817MFHPS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL XMAS CARAVAN-RED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MICSSFU730MFHPS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL Alpine Penguin</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MICSSFU731MFHPS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL Flamingo Holiday</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MICSSFU734MFHPS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS FULL Winter Tails</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MICSSQU381MFHPS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN XMAS WLAND</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MICSSQU575MFHPS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN Xmas Lights</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MICSSQU832MFHPS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN Chalet Village</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MICSSQU817MFHPS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN XMAS CARAVAN-RED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MICSSQU730MFHPS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN Alpine Penguin</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MICSSQU731MFHPS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN Flamingo Holiday</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MICSSQU734MFHPS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS QUEEN Winter Tails</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MICSSKG381MFHPS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING XMAS WLAND</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MICSSKG575MFHPS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING Xmas Lights</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MICSSKG832MFHPS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING Chalet Village</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MICSSKG817MFHPS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING XMAS CARAVAN-RED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MICSSKG730MFHPS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING Alpine Penguin</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MICSSKG731MFHPS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING Flamingo Holiday</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MICSSKG734MFHPS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS KING Winter Tails</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MICSSCK381MFHPS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS CAL KING XMAS WLAND</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICSSCK575MFHPS </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS  CAL KING Xmas Lights</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS /Xmas Lights.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS /Xmas Lights_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS /Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS /Xmas Lights.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MICSSCK832MFHPS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS CAL KING Chalet Village</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MICSSCK817MFHPS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS CAL KING XMAS CARAVAN-RED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MICSSCK730MFHPS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS CAL KING Alpine Penguin</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MICSSCK731MFHPS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS CAL KING Flamingo Holiday</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CustPortal</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MICSSCK734MFHPS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>tester93</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MICROFIBER MFHPS CAL KING Winter Tails</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
         </is>
       </c>
     </row>

--- a/hello_world.xlsx
+++ b/hello_world.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>MICSSTW381MFHPS</t>
+          <t>MICSSTW100MAMSS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -449,19 +449,19 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN XMAS WLAND</t>
+          <t>MICROFIBER MAMSS TWIN White</t>
         </is>
       </c>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg</t>
         </is>
       </c>
       <c r="K1" t="inlineStr"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg,Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MICSSTW575MFHPS</t>
+          <t>MICSSTW907MAMSS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -507,19 +507,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN Xmas Lights</t>
+          <t>MICROFIBER MAMSS TWIN Lt Gray</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg,Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MICSSTW832MFHPS</t>
+          <t>MICSSTW292MAMSS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -565,19 +565,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN Chalet Village</t>
+          <t>MICROFIBER MAMSS TWIN Dk.Grey</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg,Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MICSSTW817MFHPS</t>
+          <t>MICSSTW597MAMSS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -623,19 +623,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN XMAS CARAVAN-RED</t>
+          <t>MICROFIBER MAMSS TWIN BLUSH</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg,Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MICSSTW730MFHPS</t>
+          <t>MICSSTW404MAMSS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN Alpine Penguin</t>
+          <t>MICROFIBER MAMSS TWIN Blue</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -707,7 +707,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg,Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
     </row>
@@ -719,12 +719,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MICSSTW731MFHPS</t>
+          <t>MICSSFU100MAMSS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -739,19 +739,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN Flamingo Holiday</t>
+          <t>MICROFIBER MAMSS FULL White</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg,Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MICSSTW734MFHPS</t>
+          <t>MICSSFU907MAMSS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS TWIN Winter Tails</t>
+          <t>MICROFIBER MAMSS FULL Lt Gray</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg,Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MICSSFU381MFHPS</t>
+          <t>MICSSFU292MAMSS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -855,19 +855,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL XMAS WLAND</t>
+          <t>MICROFIBER MAMSS FULL Dk.Grey</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg,Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MICSSFU575MFHPS</t>
+          <t>MICSSFU597MAMSS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -913,19 +913,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL Xmas Lights</t>
+          <t>MICROFIBER MAMSS FULL BLUSH</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg,Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MICSSFU832MFHPS</t>
+          <t>MICSSFU404MAMSS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -971,19 +971,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL Chalet Village</t>
+          <t>MICROFIBER MAMSS FULL Blue</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg,Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MICSSFU817MFHPS</t>
+          <t>MICSSQU100MAMSS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1029,19 +1029,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL XMAS CARAVAN-RED</t>
+          <t>MICROFIBER MAMSS QUEEN White</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg,Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
     </row>
@@ -1067,12 +1067,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MICSSFU730MFHPS</t>
+          <t>MICSSQU907MAMSS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1087,19 +1087,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL Alpine Penguin</t>
+          <t>MICROFIBER MAMSS QUEEN Lt Gray</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg,Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MICSSFU731MFHPS</t>
+          <t>MICSSQU292MAMSS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1145,19 +1145,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL Flamingo Holiday</t>
+          <t>MICROFIBER MAMSS QUEEN Dk.Grey</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg,Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MICSSFU734MFHPS</t>
+          <t>MICSSQU597MAMSS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1203,19 +1203,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS FULL Winter Tails</t>
+          <t>MICROFIBER MAMSS QUEEN BLUSH</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg,Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MICSSQU381MFHPS</t>
+          <t>MICSSQU404MAMSS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1261,19 +1261,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN XMAS WLAND</t>
+          <t>MICROFIBER MAMSS QUEEN Blue</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg,Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MICSSQU575MFHPS</t>
+          <t>MICSSKG100MAMSS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1319,19 +1319,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN Xmas Lights</t>
+          <t>MICROFIBER MAMSS KING White</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg,Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MICSSQU832MFHPS</t>
+          <t>MICSSKG907MAMSS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1377,19 +1377,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN Chalet Village</t>
+          <t>MICROFIBER MAMSS KING Lt Gray</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg,Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MICSSQU817MFHPS</t>
+          <t>MICSSKG292MAMSS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1435,19 +1435,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN XMAS CARAVAN-RED</t>
+          <t>MICROFIBER MAMSS KING Dk.Grey</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg,Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
     </row>
@@ -1473,12 +1473,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MICSSQU730MFHPS</t>
+          <t>MICSSKG597MAMSS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1493,19 +1493,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN Alpine Penguin</t>
+          <t>MICROFIBER MAMSS KING BLUSH</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg,Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MICSSQU731MFHPS</t>
+          <t>MICSSKG404MAMSS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1551,19 +1551,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN Flamingo Holiday</t>
+          <t>MICROFIBER MAMSS KING Blue</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg,Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MICSSQU734MFHPS</t>
+          <t>MICSSCK100MAMSS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1609,19 +1609,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS QUEEN Winter Tails</t>
+          <t>MICROFIBER MAMSS CAL KING White</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/White_lg.jpg,Bedding/SHEET SET/MAMSS/White.jpg</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MICSSKG381MFHPS</t>
+          <t>MICSSCK907MAMSS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1667,19 +1667,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS KING XMAS WLAND</t>
+          <t>MICROFIBER MAMSS CAL KING Lt Gray</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Lt Gray_lg.jpg,Bedding/SHEET SET/MAMSS/Lt Gray.jpg</t>
         </is>
       </c>
     </row>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MICSSKG575MFHPS</t>
+          <t>MICSSCK292MAMSS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS KING Xmas Lights</t>
+          <t>MICROFIBER MAMSS CAL KING Dk.Grey</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS/Xmas Lights.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Dk.Grey_lg.jpg,Bedding/SHEET SET/MAMSS/Dk.Grey.jpg</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MICSSKG832MFHPS</t>
+          <t>MICSSCK597MAMSS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS KING Chalet Village</t>
+          <t>MICROFIBER MAMSS CAL KING BLUSH</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/BLUSH_lg.jpg,Bedding/SHEET SET/MAMSS/BLUSH.jpg</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MICSSKG817MFHPS</t>
+          <t>MICSSCK404MAMSS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>tester93</t>
+          <t>Microfiber Anti-Microbial SS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1841,19 +1841,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MICROFIBER MFHPS KING XMAS CARAVAN-RED</t>
+          <t>MICROFIBER MAMSS CAL KING Blue</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1867,587 +1867,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MICSSKG730MFHPS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS KING Alpine Penguin</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MICSSKG731MFHPS</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS KING Flamingo Holiday</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MICSSKG734MFHPS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS KING Winter Tails</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MICSSCK381MFHPS</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS CAL KING XMAS WLAND</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS WLAND_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS WLAND.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MICSSCK575MFHPS </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS  CAL KING Xmas Lights</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS /Xmas Lights.jpg</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS /Xmas Lights_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS /Xmas Lights_lg.jpg,Bedding/SHEET SET/MFHPS /Xmas Lights.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MICSSCK832MFHPS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS CAL KING Chalet Village</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Chalet Village_lg.jpg,Bedding/SHEET SET/MFHPS/Chalet Village.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MICSSCK817MFHPS</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS CAL KING XMAS CARAVAN-RED</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED_lg.jpg,Bedding/SHEET SET/MFHPS/XMAS CARAVAN-RED.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MICSSCK730MFHPS</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS CAL KING Alpine Penguin</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Alpine Penguin_lg.jpg,Bedding/SHEET SET/MFHPS/Alpine Penguin.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MICSSCK731MFHPS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS CAL KING Flamingo Holiday</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Flamingo Holiday_lg.jpg,Bedding/SHEET SET/MFHPS/Flamingo Holiday.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CustPortal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MICSSCK734MFHPS</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>tester93</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MICROFIBER MFHPS CAL KING Winter Tails</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Bedding/SHEET SET/MFHPS/Winter Tails_lg.jpg,Bedding/SHEET SET/MFHPS/Winter Tails.jpg</t>
+          <t>Bedding/SHEET SET/MAMSS/Blue_lg.jpg,Bedding/SHEET SET/MAMSS/Blue.jpg</t>
         </is>
       </c>
     </row>
